--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DC5747-AD35-4FF8-BA00-76AC20617E8B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75B7CEF-B0E4-47F5-A6EA-310BA971CA5C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order Info" sheetId="1" r:id="rId1"/>
     <sheet name="Product Info" sheetId="2" r:id="rId2"/>
     <sheet name="Res Info" sheetId="3" r:id="rId3"/>
+    <sheet name="Purchase Info" sheetId="4" r:id="rId4"/>
+    <sheet name="Stock Info" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>SalesOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,14 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000-01-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SO-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000-01-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROAD-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,7 +317,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2000-01-01 </t>
+    <t xml:space="preserve">2000-01-01 00:00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000-01-01 00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO-14</t>
+  </si>
+  <si>
+    <t>PO-13</t>
+  </si>
+  <si>
+    <t>PO-12</t>
+  </si>
+  <si>
+    <t>PO-11</t>
+  </si>
+  <si>
+    <t>PO-10</t>
+  </si>
+  <si>
+    <t>PO-09</t>
+  </si>
+  <si>
+    <t>PO-08</t>
+  </si>
+  <si>
+    <t>PO-07</t>
+  </si>
+  <si>
+    <t>PO-06</t>
+  </si>
+  <si>
+    <t>PO-05</t>
+  </si>
+  <si>
+    <t>PO-04</t>
+  </si>
+  <si>
+    <t>PO-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RawPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>SADDLE-1</t>
+  </si>
+  <si>
+    <t>SPOKE-1</t>
+  </si>
+  <si>
+    <t>2018-05-04 00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-03 00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-01 08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-01 06:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-01 07:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-05 00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -709,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,61 +835,61 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42362E89-1FEC-4AF5-B973-8CFEC0833A2B}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -845,65 +932,65 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="6">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6">
         <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="6">
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="6">
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6">
         <v>15</v>
@@ -912,42 +999,42 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6">
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="6">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
@@ -956,16 +1043,16 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="6">
         <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6">
         <v>5</v>
@@ -974,42 +1061,42 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>43</v>
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6">
         <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="6">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6">
         <v>10</v>
@@ -1018,16 +1105,16 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="6">
         <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
@@ -1036,42 +1123,42 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6">
         <v>15</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H11" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="6">
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12" s="6">
         <v>15</v>
@@ -1080,16 +1167,16 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="6">
         <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6">
         <v>15</v>
@@ -1098,136 +1185,136 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="8">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="8">
         <v>5</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6" t="s">
+      <c r="F18" s="8">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="H20" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H21" s="6">
         <v>1</v>
@@ -1235,147 +1322,147 @@
     </row>
     <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H23" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="A26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="8">
         <v>10</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="D26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="8">
         <v>15</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
@@ -1384,26 +1471,26 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="8">
         <v>10</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="D30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="8">
         <v>15</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
@@ -1412,14 +1499,14 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H31" s="6">
         <v>1</v>
@@ -1428,14 +1515,14 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="6">
         <v>2</v>
@@ -1444,150 +1531,150 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="A34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="8">
         <v>10</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="D34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="8">
         <v>15</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H36" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="A38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="8">
         <v>10</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="D38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="8">
         <v>15</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H39" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H40" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H41" s="6">
         <v>1</v>
@@ -1674,55 +1761,55 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1733,4 +1820,276 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07F15E9-9331-467A-8FE2-073A2D717B13}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7">
+        <v>400</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7">
+        <v>600</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7">
+        <v>400</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="7">
+        <v>400</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7">
+        <v>400</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7">
+        <v>200</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="7">
+        <v>200</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="7">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0417600A-5F7A-4021-A169-9FDCA7863C39}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="20.77734375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75B7CEF-B0E4-47F5-A6EA-310BA971CA5C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0591A-07DC-4E67-B5C0-0FA8F2FC4515}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>SalesOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResourceGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AdoptRes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,14 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SO-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROAD-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,14 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2000-01-01 00:00 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000-01-01 00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PO-14</t>
   </si>
   <si>
@@ -395,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-05-03 00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-05-01 08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,6 +377,33 @@
   <si>
     <t>2018-05-05 00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdoptResourceGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-01 00:00</t>
   </si>
 </sst>
 </file>
@@ -475,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -483,35 +474,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,88 +817,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>100</v>
+      <c r="D5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -904,93 +913,102 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="20.77734375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="6">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6">
         <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H2" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="6">
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="6">
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6">
         <v>15</v>
@@ -999,42 +1017,42 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>38</v>
+      <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6">
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
@@ -1043,16 +1061,16 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6">
         <v>5</v>
@@ -1061,42 +1079,42 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6">
         <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6">
         <v>10</v>
@@ -1105,16 +1123,16 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
@@ -1123,42 +1141,42 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>42</v>
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F11" s="6">
         <v>15</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H11" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F12" s="6">
         <v>15</v>
@@ -1167,16 +1185,16 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="6">
         <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F13" s="6">
         <v>15</v>
@@ -1185,136 +1203,136 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>5</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H14" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H15" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="9">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="8">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="8">
-        <v>5</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H20" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H21" s="6">
         <v>1</v>
@@ -1322,359 +1340,359 @@
     </row>
     <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C22" s="6">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H22" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>10</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <v>5</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H23" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="A26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9">
         <v>10</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="D26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="9">
         <v>15</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H28" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="9">
+        <v>10</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="9">
         <v>15</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="H32" s="6">
         <v>2</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="A34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="9">
         <v>10</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="8">
+      <c r="D34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="9">
         <v>15</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H36" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="A38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="9">
         <v>10</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="D38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="9">
         <v>15</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H39" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H40" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H41" s="6">
         <v>1</v>
@@ -1682,36 +1700,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="F14:F17"/>
@@ -1721,17 +1720,36 @@
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1744,7 +1762,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1753,63 +1771,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1845,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1836,213 +1854,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>89</v>
+      <c r="D1" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7">
         <v>500</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>98</v>
+      <c r="D2" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" s="7">
         <v>5000</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>98</v>
+      <c r="D3" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7">
         <v>1500</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>98</v>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7">
         <v>400</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>98</v>
+      <c r="D5" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7">
         <v>600</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
+      <c r="D6" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7" s="7">
         <v>400</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>99</v>
+      <c r="D7" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7">
         <v>400</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>99</v>
+      <c r="D8" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7">
         <v>4000</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>99</v>
+      <c r="D9" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7">
         <v>400</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>99</v>
+      <c r="D10" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7">
         <v>200</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>99</v>
+      <c r="D11" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="7">
         <v>200</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>97</v>
+      <c r="D12" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7">
         <v>100</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>97</v>
+      <c r="D13" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>1500</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>98</v>
+      <c r="D14" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7">
         <v>1000</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>98</v>
+      <c r="D15" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2056,24 +2074,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0417600A-5F7A-4021-A169-9FDCA7863C39}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="20.77734375" style="7"/>
+    <col min="1" max="16384" width="20.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>92</v>
+      <c r="A1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B2" s="7">
         <v>25</v>
@@ -2081,7 +2101,7 @@
     </row>
     <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7">
         <v>1000</v>
